--- a/public/import_siswa.xlsx
+++ b/public/import_siswa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\osis\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAE8158-EBC1-490F-B970-88548C7349FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62315E06-E4FB-4B2D-A637-4D5A3C8FB6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{60A2E1FF-59B6-46FA-9045-FE74FA143605}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{60A2E1FF-59B6-46FA-9045-FE74FA143605}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>no</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>nama</t>
+  </si>
+  <si>
+    <t>sudah_memilih</t>
+  </si>
+  <si>
+    <t>pilihan</t>
+  </si>
+  <si>
+    <t>waktu_memilih</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,12 +444,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -457,7 +537,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="2E353D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -749,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C474DB86-F51D-4838-AB4D-C43C479BADBA}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +844,7 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,8 +863,17 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -803,8 +892,17 @@
       <c r="F2" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -823,8 +921,17 @@
       <c r="F3" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -843,8 +950,17 @@
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -863,8 +979,17 @@
       <c r="F5" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -883,8 +1008,17 @@
       <c r="F6" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -903,8 +1037,17 @@
       <c r="F7" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -923,8 +1066,17 @@
       <c r="F8" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -943,8 +1095,17 @@
       <c r="F9" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -963,8 +1124,17 @@
       <c r="F10" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -983,8 +1153,17 @@
       <c r="F11" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1003,8 +1182,17 @@
       <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1023,8 +1211,17 @@
       <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1043,8 +1240,17 @@
       <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1063,8 +1269,17 @@
       <c r="F15" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1083,8 +1298,17 @@
       <c r="F16" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1103,8 +1327,17 @@
       <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1123,8 +1356,17 @@
       <c r="F18" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1143,8 +1385,17 @@
       <c r="F19" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1163,8 +1414,17 @@
       <c r="F20" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1183,8 +1443,17 @@
       <c r="F21" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1203,8 +1472,17 @@
       <c r="F22" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1223,8 +1501,17 @@
       <c r="F23" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1243,8 +1530,17 @@
       <c r="F24" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1263,8 +1559,17 @@
       <c r="F25" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1283,8 +1588,17 @@
       <c r="F26" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1303,8 +1617,17 @@
       <c r="F27" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1323,8 +1646,17 @@
       <c r="F28" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1343,8 +1675,17 @@
       <c r="F29" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1363,8 +1704,17 @@
       <c r="F30" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1383,8 +1733,17 @@
       <c r="F31" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1403,8 +1762,17 @@
       <c r="F32" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1422,6 +1790,15 @@
       </c>
       <c r="F33" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
